--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,16 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.1.80</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Packets</t>
         </is>
       </c>
@@ -448,60 +453,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5.252.101.138</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 55054, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 55054, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 55054, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 54907, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261', 'Src IP: 192.168.1.80, Src Port: 61031, Dst IP: 5.252.101.138, Dst Port: 30261']</t>
+          <t>162.159.130.234</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>443</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:55916 &gt; 162.159.130.234:https A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>66.22.244.141</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['Src IP: 192.168.1.80, Src Port: 63860, Dst IP: 66.22.244.141, Dst Port: 50020', 'Src IP: 192.168.1.80, Src Port: 63860, Dst IP: 66.22.244.141, Dst Port: 50020']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>162.159.130.234</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 52977, Dst IP: 162.159.130.234, Dst Port: 443']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>66.22.244.152</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>['Src IP: 192.168.1.80, Src Port: 54073, Dst IP: 66.22.244.152, Dst Port: 50022', 'Src IP: 192.168.1.80, Src Port: 54073, Dst IP: 66.22.244.152, Dst Port: 50022', 'Src IP: 192.168.1.80, Src Port: 54073, Dst IP: 66.22.244.152, Dst Port: 50022', 'Src IP: 192.168.1.80, Src Port: 54073, Dst IP: 66.22.244.152, Dst Port: 50022', 'Src IP: 192.168.1.80, Src Port: 54073, Dst IP: 66.22.244.152, Dst Port: 50022']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>162.159.137.232</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['Src IP: 192.168.1.80, Src Port: 59427, Dst IP: 162.159.137.232, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 59427, Dst IP: 162.159.137.232, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 59427, Dst IP: 162.159.137.232, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 59427, Dst IP: 162.159.137.232, Dst Port: 443', 'Src IP: 192.168.1.80, Src Port: 59427, Dst IP: 162.159.137.232, Dst Port: 443']</t>
+          <t>162.159.128.233</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>443</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:55917 &gt; 162.159.128.233:https A / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -453,22 +453,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162.159.130.234</t>
+          <t>66.22.243.160</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443</v>
+        <v>50005</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:55916 &gt; 162.159.130.234:https A</t>
+          <t>Ether / IP / UDP 192.168.1.80:59302 &gt; 66.22.243.160:50005 / Raw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162.159.128.233</t>
+          <t>162.159.130.234</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:55917 &gt; 162.159.128.233:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:55916 &gt; 162.159.130.234:https A</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>66.22.243.160</t>
+          <t>5.252.101.138</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50005</v>
+        <v>30261</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:59302 &gt; 66.22.243.160:50005 / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:56371 &gt; 5.252.101.138:30261 A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>5.252.101.138</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30261</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ether / IP / UDP 192.168.1.80:63349 &gt; 5.252.101.138:30261 / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5.252.101.138</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30261</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56362 &gt; 5.252.101.138:30261 A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>66.22.243.160</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50005</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ether / IP / UDP 192.168.1.80:61261 &gt; 66.22.243.160:50005 / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>66.22.243.160</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50005</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ether / IP / UDP 192.168.1.80:53959 &gt; 66.22.243.160:50005 / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>162.159.130.234</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>443</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B7" t="n">
+        <v>443</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Ether / IP / TCP 192.168.1.80:55916 &gt; 162.159.130.234:https A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>54.211.42.197</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>443</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56325 &gt; 54.211.42.197:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>51.222.254.68</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>443</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56359 &gt; 51.222.254.68:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3.160.246.10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>443</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56356 &gt; 3.160.246.10:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>142.250.82.136</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3478</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ether / IP / UDP 192.168.1.80:49402 &gt; 142.250.82.136:3478 / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>140.82.114.26</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>443</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56251 &gt; 140.82.114.26:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>140.82.112.22</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>443</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56321 &gt; 140.82.112.22:https FA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>140.82.112.22</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>443</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56321 &gt; 140.82.112.22:https A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>52.72.144.242</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>443</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56384 &gt; 52.72.144.242:https S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>52.72.144.242</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>443</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56384 &gt; 52.72.144.242:https PA / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>52.72.144.242</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>443</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:56384 &gt; 52.72.144.242:https A</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -1,117 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cioba\Documents\GitHub\Scrappy\Scrappy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100D2210-83F5-4EB2-BCE6-477FAEAFE540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Packets</t>
-  </si>
-  <si>
-    <t>66.22.244.132</t>
-  </si>
-  <si>
-    <t>Ether / IP / UDP 192.168.1.80:53268 &gt; 66.22.244.132:50003 / Raw</t>
-  </si>
-  <si>
-    <t>Ether / IP / UDP 192.168.1.80:50913 &gt; 66.22.244.132:50003 / Raw</t>
-  </si>
-  <si>
-    <t>162.159.133.234</t>
-  </si>
-  <si>
-    <t>Ether / IP / TCP 192.168.1.80:56827 &gt; 162.159.133.234:https A</t>
-  </si>
-  <si>
-    <t>Ether / IP / TCP 192.168.1.80:56827 &gt; 162.159.133.234:https PA / Raw</t>
-  </si>
-  <si>
-    <t>66.22.244.170</t>
-  </si>
-  <si>
-    <t>Ether / IP / UDP 192.168.1.80:51886 &gt; 66.22.244.170:50022 / Raw</t>
-  </si>
-  <si>
-    <t>140.82.114.26</t>
-  </si>
-  <si>
-    <t>Ether / IP / TCP 192.168.1.80:56926 &gt; 140.82.114.26:https FPA / Raw</t>
-  </si>
-  <si>
-    <t>Ether / IP / TCP 192.168.1.80:56926 &gt; 140.82.114.26:https A / Raw</t>
-  </si>
-  <si>
-    <t>Ether / IP / TCP 192.168.1.80:56926 &gt; 140.82.114.26:https PA / Raw</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'config.extension.grammarly.com.'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'extension.femetrics.grammarly.io.'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'www.msftconnecttest.com.'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'ipv6.msftconnecttest.com.'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'bucharest303.discord.media.'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'catalog.gamepass.com.'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether / IP / UDP / DNS Qry "b'bucharest6099.discord.media.'" </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,191 +420,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Packets</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>50003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>66.22.244.141</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50010</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ether / IP / UDP 192.168.1.80:58399 &gt; 66.22.244.141:50010 / Raw</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>50003</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>66.22.244.151</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50026</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ether / IP / UDP 192.168.1.80:58398 &gt; 66.22.244.151:50026 / Raw</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>443</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>443</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>50022</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>443</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>443</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>443</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>146.66.155.54</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27024</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:57429 &gt; 146.66.155.54:27024 A</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -461,37 +461,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:58399 &gt; 66.22.244.141:50010 / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:62875 &gt; 66.22.244.141:50010 / Raw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>66.22.244.151</t>
+          <t>66.22.244.8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50026</v>
+        <v>50009</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:58398 &gt; 66.22.244.151:50026 / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:51998 &gt; 66.22.244.8:50009 / Raw</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>146.66.155.54</t>
+          <t>66.22.244.151</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27024</v>
+        <v>50026</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:57429 &gt; 146.66.155.54:27024 A</t>
+          <t>Ether / IP / UDP 192.168.1.80:62887 &gt; 66.22.244.151:50026 / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -453,45 +453,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>66.22.244.141</t>
+          <t>162.159.135.234</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50010</v>
+        <v>443</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:62875 &gt; 66.22.244.141:50010 / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:51129 &gt; 162.159.135.234:https A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>66.22.244.8</t>
+          <t>146.66.155.38</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50009</v>
+        <v>27017</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:51998 &gt; 66.22.244.8:50009 / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:51059 &gt; 146.66.155.38:27017 / Raw</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>66.22.244.151</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50026</v>
+        <v>1900</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:62887 &gt; 66.22.244.151:50026 / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:49523 &gt; 239.255.255.250:ssdp / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162.159.135.234</t>
+          <t>162.159.130.232</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,37 +461,157 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:51129 &gt; 162.159.135.234:https A</t>
+          <t>Ether / IP / TCP 192.168.1.80:52298 &gt; 162.159.130.232:https A / Raw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>146.66.155.38</t>
+          <t>162.159.129.233</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27017</v>
+        <v>443</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:51059 &gt; 146.66.155.38:27017 / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52295 &gt; 162.159.129.233:https A / Raw</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>239.255.255.250</t>
+          <t>162.159.135.234</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1900</v>
+        <v>443</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:49523 &gt; 239.255.255.250:ssdp / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52032 &gt; 162.159.135.234:https A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18.165.171.128</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>443</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52364 &gt; 18.165.171.128:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>140.82.114.25</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>443</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52356 &gt; 140.82.114.25:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>44.194.2.53</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>443</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52365 &gt; 44.194.2.53:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>140.82.112.22</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>443</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52351 &gt; 140.82.112.22:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>82.78.147.80</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>443</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52347 &gt; 82.78.147.80:https FA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>82.78.147.80</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>443</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52327 &gt; 82.78.147.80:https FA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>82.78.147.80</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>443</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52327 &gt; 82.78.147.80:https A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>82.78.147.80</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>443</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52347 &gt; 82.78.147.80:https A</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162.159.130.232</t>
+          <t>20.42.65.84</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,14 +461,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52298 &gt; 162.159.130.232:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52411 &gt; 20.42.65.84:https A / Raw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162.159.129.233</t>
+          <t>140.82.114.26</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52295 &gt; 162.159.129.233:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52463 &gt; 140.82.114.26:https A / Raw</t>
         </is>
       </c>
     </row>
@@ -491,14 +491,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52032 &gt; 162.159.135.234:https A</t>
+          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18.165.171.128</t>
+          <t>3.216.86.139</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -506,112 +506,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52364 &gt; 18.165.171.128:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52482 &gt; 3.216.86.139:https A / Raw</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>140.82.114.25</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443</v>
+        <v>1900</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52356 &gt; 140.82.114.25:https A / Raw</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>44.194.2.53</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>443</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52365 &gt; 44.194.2.53:https A / Raw</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>140.82.112.22</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>443</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52351 &gt; 140.82.112.22:https A / Raw</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>82.78.147.80</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>443</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52347 &gt; 82.78.147.80:https FA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>82.78.147.80</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>443</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52327 &gt; 82.78.147.80:https FA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>82.78.147.80</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>443</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52327 &gt; 82.78.147.80:https A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>82.78.147.80</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>443</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52347 &gt; 82.78.147.80:https A</t>
+          <t>Ether / IP / UDP 192.168.1.80:51369 &gt; 239.255.255.250:ssdp / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,22 +453,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20.42.65.84</t>
+          <t>66.22.244.26</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443</v>
+        <v>50003</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52411 &gt; 20.42.65.84:https A / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:64182 &gt; 66.22.244.26:50003 / Raw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140.82.114.26</t>
+          <t>162.159.135.234</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,52 +476,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52463 &gt; 140.82.114.26:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>162.159.135.234</t>
+          <t>66.22.244.25</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443</v>
+        <v>50021</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3.216.86.139</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>443</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52482 &gt; 3.216.86.139:https A / Raw</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>239.255.255.250</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ether / IP / UDP 192.168.1.80:51369 &gt; 239.255.255.250:ssdp / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:50431 &gt; 66.22.244.25:50021 / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,22 +453,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>66.22.244.26</t>
+          <t>162.159.135.234</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50003</v>
+        <v>443</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:64182 &gt; 66.22.244.26:50003 / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162.159.135.234</t>
+          <t>185.199.111.154</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,22 +476,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
+          <t>Ether / IP / TCP 192.168.1.80:52821 &gt; 185.199.111.154:https A / Raw</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>66.22.244.25</t>
+          <t>185.199.111.154</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50021</v>
+        <v>443</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:50431 &gt; 66.22.244.25:50021 / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52813 &gt; 185.199.111.154:https A / Raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>140.82.114.26</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>443</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ether / IP / TCP 192.168.1.80:52824 &gt; 140.82.114.26:https A / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,22 +453,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162.159.135.234</t>
+          <t>66.22.244.139</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443</v>
+        <v>50004</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
+          <t>Ether / IP / UDP 192.168.1.80:51280 &gt; 66.22.244.139:50004 / Raw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>185.199.111.154</t>
+          <t>162.159.135.234</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,14 +476,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52821 &gt; 185.199.111.154:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:52490 &gt; 162.159.135.234:https A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>185.199.111.154</t>
+          <t>146.75.117.44</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,22 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:52813 &gt; 185.199.111.154:https A / Raw</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>140.82.114.26</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>443</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ether / IP / TCP 192.168.1.80:52824 &gt; 140.82.114.26:https A / Raw</t>
+          <t>Ether / IP / TCP 192.168.1.80:53984 &gt; 146.75.117.44:https A / Raw</t>
         </is>
       </c>
     </row>

--- a/packet_info.xlsx
+++ b/packet_info.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ether / IP / UDP 192.168.1.80:51280 &gt; 66.22.244.139:50004 / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:50490 &gt; 66.22.244.139:50004 / Raw</t>
         </is>
       </c>
     </row>
@@ -483,15 +483,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>146.75.117.44</t>
+          <t>66.22.244.133</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443</v>
+        <v>50024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ether / IP / TCP 192.168.1.80:53984 &gt; 146.75.117.44:https A / Raw</t>
+          <t>Ether / IP / UDP 192.168.1.80:62884 &gt; 66.22.244.133:50024 / Raw</t>
         </is>
       </c>
     </row>
